--- a/Excel_luban/Datas/PuzzleConfig.xlsx
+++ b/Excel_luban/Datas/PuzzleConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26835" windowHeight="12975"/>
+    <workbookView windowWidth="27705" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="PuzzleConfig" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -89,55 +89,34 @@
     <t>ui://PuzzlePKG/TR</t>
   </si>
   <si>
-    <t>ui://PuzzlePKG/43</t>
-  </si>
-  <si>
-    <t>ui://PuzzlePKG/44</t>
-  </si>
-  <si>
-    <t>ui://PuzzlePKG/51</t>
-  </si>
-  <si>
-    <t>ui://PuzzlePKG/52</t>
-  </si>
-  <si>
-    <t>ui://PuzzlePKG/53</t>
-  </si>
-  <si>
-    <t>ui://PuzzlePKG/54</t>
-  </si>
-  <si>
-    <t>ui://PuzzlePKG/61</t>
-  </si>
-  <si>
-    <t>ui://PuzzlePKG/62</t>
-  </si>
-  <si>
-    <t>ui://PuzzlePKG/63</t>
-  </si>
-  <si>
-    <t>ui://PuzzlePKG/64</t>
-  </si>
-  <si>
-    <t>ui://PuzzlePKG/71</t>
-  </si>
-  <si>
-    <t>ui://PuzzlePKG/72</t>
-  </si>
-  <si>
-    <t>ui://PuzzlePKG/73</t>
-  </si>
-  <si>
-    <t>ui://PuzzlePKG/74</t>
-  </si>
-  <si>
-    <t>ui://PuzzlePKG/81</t>
-  </si>
-  <si>
-    <t>ui://PuzzlePKG/82</t>
-  </si>
-  <si>
-    <t>ui://PuzzlePKG/83</t>
+    <t>ui://PuzzlePKG/L1</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/C1</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/C2</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/R1</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/L2</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/R2</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/BL</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/B1</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/B2</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/BR</t>
   </si>
 </sst>
 </file>
@@ -211,13 +190,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -937,14 +916,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -972,28 +951,34 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1076,6 +1061,23 @@
   <dxfs count="3">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <name val="宋体"/>
         <scheme val="none"/>
         <b val="0"/>
@@ -1088,23 +1090,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1412,7 +1397,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1603,10 +1588,10 @@
       <c r="C6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="16">
         <v>3</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="16">
         <v>3</v>
       </c>
     </row>
@@ -1617,10 +1602,10 @@
       <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="16">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="16">
         <v>3</v>
       </c>
     </row>
@@ -1628,13 +1613,13 @@
       <c r="B8" s="16">
         <v>112</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="16">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="16">
         <v>3</v>
       </c>
     </row>
@@ -1642,13 +1627,13 @@
       <c r="B9" s="16">
         <v>113</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="16">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="16">
         <v>3</v>
       </c>
     </row>
@@ -1656,13 +1641,13 @@
       <c r="B10" s="16">
         <v>114</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="16">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="16">
         <v>4</v>
       </c>
     </row>
@@ -1670,106 +1655,106 @@
       <c r="B11" s="16">
         <v>115</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="16">
         <v>4</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="2:5">
-      <c r="B12" s="18">
+      <c r="B12" s="19">
         <v>120</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="19">
         <v>4</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" spans="2:5">
-      <c r="B13" s="18">
+      <c r="B13" s="19">
         <v>121</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="19">
         <v>4</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" spans="2:5">
-      <c r="B14" s="18">
+      <c r="B14" s="19">
         <v>122</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="19">
         <v>5</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" spans="2:5">
-      <c r="B15" s="18">
+      <c r="B15" s="19">
         <v>123</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="19">
+        <v>5</v>
+      </c>
+      <c r="E15" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" s="4" customFormat="1" spans="2:5">
+      <c r="B16" s="19">
+        <v>124</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="19">
+        <v>5</v>
+      </c>
+      <c r="E16" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" spans="2:5">
+      <c r="B17" s="19">
+        <v>125</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D17" s="19">
         <v>5</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E17" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" spans="2:5">
-      <c r="B16" s="18">
-        <v>124</v>
-      </c>
-      <c r="C16" s="20" t="s">
+    <row r="18" s="5" customFormat="1" spans="2:5">
+      <c r="B18" s="22">
+        <v>130</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>23</v>
-      </c>
-      <c r="D16" s="18">
-        <v>5</v>
-      </c>
-      <c r="E16" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" s="4" customFormat="1" spans="2:5">
-      <c r="B17" s="18">
-        <v>125</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="18">
-        <v>5</v>
-      </c>
-      <c r="E17" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" s="5" customFormat="1" spans="2:5">
-      <c r="B18" s="21">
-        <v>130</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>25</v>
       </c>
       <c r="D18" s="5">
         <v>6</v>
@@ -1779,11 +1764,11 @@
       </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="2:5">
-      <c r="B19" s="21">
+      <c r="B19" s="22">
         <v>131</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>26</v>
+      <c r="C19" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="D19" s="5">
         <v>6</v>
@@ -1793,151 +1778,159 @@
       </c>
     </row>
     <row r="20" s="5" customFormat="1" spans="2:5">
-      <c r="B20" s="21">
+      <c r="B20" s="22">
         <v>132</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="24">
+        <v>6</v>
+      </c>
+      <c r="E20" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="1" spans="2:5">
+      <c r="B21" s="22">
+        <v>133</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" s="5" customFormat="1" spans="2:5">
+      <c r="B22" s="22">
+        <v>134</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="24">
+        <v>6</v>
+      </c>
+      <c r="E22" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="1" spans="2:5">
+      <c r="B23" s="22">
+        <v>135</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="24">
+        <v>7</v>
+      </c>
+      <c r="E23" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="2:5">
+      <c r="B24" s="25">
+        <v>140</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="27">
+        <v>7</v>
+      </c>
+      <c r="E24" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" s="6" customFormat="1" spans="2:5">
+      <c r="B25" s="25">
+        <v>141</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="27">
+        <v>7</v>
+      </c>
+      <c r="E25" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" s="6" customFormat="1" spans="2:5">
+      <c r="B26" s="25">
+        <v>142</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="23">
-        <v>6</v>
-      </c>
-      <c r="E20" s="23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" s="5" customFormat="1" spans="2:5">
-      <c r="B21" s="21">
-        <v>133</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" s="5" customFormat="1" spans="2:5">
-      <c r="B22" s="21">
-        <v>134</v>
-      </c>
-      <c r="C22" s="22" t="s">
+      <c r="D26" s="27">
+        <v>7</v>
+      </c>
+      <c r="E26" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" s="6" customFormat="1" spans="2:5">
+      <c r="B27" s="25">
+        <v>143</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="27">
+        <v>8</v>
+      </c>
+      <c r="E27" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" s="6" customFormat="1" spans="2:5">
+      <c r="B28" s="25">
+        <v>144</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="27">
+        <v>8</v>
+      </c>
+      <c r="E28" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" s="6" customFormat="1" spans="2:5">
+      <c r="B29" s="25">
+        <v>145</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="23">
-        <v>6</v>
-      </c>
-      <c r="E22" s="23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" s="5" customFormat="1" spans="2:5">
-      <c r="B23" s="21">
-        <v>135</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="23">
-        <v>7</v>
-      </c>
-      <c r="E23" s="23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" s="6" customFormat="1" spans="2:5">
-      <c r="B24" s="16">
-        <v>140</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="25">
-        <v>7</v>
-      </c>
-      <c r="E24" s="25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" s="6" customFormat="1" spans="2:5">
-      <c r="B25" s="16">
-        <v>141</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="25">
-        <v>7</v>
-      </c>
-      <c r="E25" s="25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" s="6" customFormat="1" spans="2:5">
-      <c r="B26" s="16">
-        <v>142</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="25">
-        <v>7</v>
-      </c>
-      <c r="E26" s="25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" s="6" customFormat="1" spans="2:5">
-      <c r="B27" s="16">
-        <v>143</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="25">
+      <c r="D29" s="27">
         <v>8</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E29" s="27">
         <v>8</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="1" spans="2:5">
-      <c r="B28" s="16">
-        <v>144</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="25">
-        <v>8</v>
-      </c>
-      <c r="E28" s="25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" s="6" customFormat="1" spans="2:5">
-      <c r="B29" s="16">
-        <v>145</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="25">
-        <v>8</v>
-      </c>
-      <c r="E29" s="25">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B6:B11 B14:B17 B20:B29">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+  <conditionalFormatting sqref="B8:B11">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B17 B20:B29">
+    <cfRule type="duplicateValues" dxfId="2" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B19 B21:B22">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel_luban/Datas/PuzzleConfig.xlsx
+++ b/Excel_luban/Datas/PuzzleConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27705" windowHeight="12975"/>
+    <workbookView windowWidth="27945" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="PuzzleConfig" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -41,7 +41,7 @@
     <t>urlMask</t>
   </si>
   <si>
-    <t>cardValue</t>
+    <t>iconPos</t>
   </si>
   <si>
     <t>##desc</t>
@@ -56,6 +56,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>Pos2Int</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -68,10 +71,10 @@
     <t>key值</t>
   </si>
   <si>
-    <t>道具名称</t>
-  </si>
-  <si>
-    <t>牌值</t>
+    <t>组件</t>
+  </si>
+  <si>
+    <t>位置</t>
   </si>
   <si>
     <t>不导出备注</t>
@@ -80,43 +83,115 @@
     <t>ui://PuzzlePKG/TL</t>
   </si>
   <si>
+    <t>0,0</t>
+  </si>
+  <si>
     <t>ui://PuzzlePKG/T1</t>
   </si>
   <si>
+    <t>-170,0</t>
+  </si>
+  <si>
     <t>ui://PuzzlePKG/T2</t>
   </si>
   <si>
+    <t>-340,0</t>
+  </si>
+  <si>
+    <t>-510,0</t>
+  </si>
+  <si>
+    <t>-680,0</t>
+  </si>
+  <si>
     <t>ui://PuzzlePKG/TR</t>
   </si>
   <si>
+    <t>-850,0</t>
+  </si>
+  <si>
     <t>ui://PuzzlePKG/L1</t>
   </si>
   <si>
+    <t>0,-170</t>
+  </si>
+  <si>
     <t>ui://PuzzlePKG/C1</t>
   </si>
   <si>
+    <t>-170,-170</t>
+  </si>
+  <si>
     <t>ui://PuzzlePKG/C2</t>
   </si>
   <si>
+    <t>-340,-170</t>
+  </si>
+  <si>
+    <t>-510,-170</t>
+  </si>
+  <si>
+    <t>-680,-170</t>
+  </si>
+  <si>
     <t>ui://PuzzlePKG/R1</t>
   </si>
   <si>
+    <t>-850,-170</t>
+  </si>
+  <si>
     <t>ui://PuzzlePKG/L2</t>
   </si>
   <si>
+    <t>0,-340</t>
+  </si>
+  <si>
+    <t>-170,-340</t>
+  </si>
+  <si>
+    <t>-340,-340</t>
+  </si>
+  <si>
+    <t>-510,-340</t>
+  </si>
+  <si>
+    <t>-680,-340</t>
+  </si>
+  <si>
     <t>ui://PuzzlePKG/R2</t>
   </si>
   <si>
+    <t>-850,-340</t>
+  </si>
+  <si>
     <t>ui://PuzzlePKG/BL</t>
   </si>
   <si>
+    <t>0,-510</t>
+  </si>
+  <si>
     <t>ui://PuzzlePKG/B1</t>
   </si>
   <si>
+    <t>-170,-510</t>
+  </si>
+  <si>
     <t>ui://PuzzlePKG/B2</t>
   </si>
   <si>
+    <t>-340,-510</t>
+  </si>
+  <si>
+    <t>-510,-510</t>
+  </si>
+  <si>
+    <t>-680,-510</t>
+  </si>
+  <si>
     <t>ui://PuzzlePKG/BR</t>
+  </si>
+  <si>
+    <t>-850,-510</t>
   </si>
 </sst>
 </file>
@@ -985,6 +1060,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1397,7 +1475,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1487,7 +1565,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>7</v>
@@ -1515,11 +1593,11 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:25">
       <c r="A4" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="12"/>
@@ -1546,19 +1624,19 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:25">
       <c r="A5" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -1586,10 +1664,10 @@
         <v>110</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="16">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="16">
         <v>3</v>
@@ -1600,10 +1678,10 @@
         <v>111</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="16">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="16">
         <v>3</v>
@@ -1614,10 +1692,10 @@
         <v>112</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="16">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="16">
         <v>3</v>
@@ -1628,10 +1706,10 @@
         <v>113</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="16">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="16">
         <v>3</v>
@@ -1642,10 +1720,10 @@
         <v>114</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="16">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="16">
         <v>4</v>
@@ -1656,10 +1734,10 @@
         <v>115</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="16">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="E11" s="16">
         <v>4</v>
@@ -1670,10 +1748,10 @@
         <v>120</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="19">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="E12" s="19">
         <v>4</v>
@@ -1684,10 +1762,10 @@
         <v>121</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="19">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="E13" s="19">
         <v>4</v>
@@ -1698,10 +1776,10 @@
         <v>122</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="19">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="19">
         <v>5</v>
@@ -1712,10 +1790,10 @@
         <v>123</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="19">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="19">
         <v>5</v>
@@ -1726,10 +1804,10 @@
         <v>124</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="19">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="E16" s="19">
         <v>5</v>
@@ -1740,10 +1818,10 @@
         <v>125</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="19">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="E17" s="19">
         <v>5</v>
@@ -1754,10 +1832,10 @@
         <v>130</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="5">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="E18" s="5">
         <v>6</v>
@@ -1768,10 +1846,10 @@
         <v>131</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="E19" s="5">
         <v>6</v>
@@ -1782,10 +1860,10 @@
         <v>132</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="24">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="E20" s="24">
         <v>6</v>
@@ -1796,9 +1874,11 @@
         <v>133</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="24"/>
+        <v>30</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="E21" s="24"/>
     </row>
     <row r="22" s="5" customFormat="1" spans="2:5">
@@ -1806,10 +1886,10 @@
         <v>134</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="24">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="E22" s="24">
         <v>6</v>
@@ -1820,10 +1900,10 @@
         <v>135</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="24">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="E23" s="24">
         <v>7</v>
@@ -1834,10 +1914,10 @@
         <v>140</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="27">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="E24" s="27">
         <v>7</v>
@@ -1848,10 +1928,10 @@
         <v>141</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="27">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="E25" s="27">
         <v>7</v>
@@ -1862,10 +1942,10 @@
         <v>142</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="27">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="E26" s="27">
         <v>7</v>
@@ -1876,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="27">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="E27" s="27">
         <v>8</v>
@@ -1890,10 +1970,10 @@
         <v>144</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="27">
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="E28" s="27">
         <v>8</v>
@@ -1904,10 +1984,10 @@
         <v>145</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="27">
-        <v>8</v>
+        <v>52</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="E29" s="27">
         <v>8</v>

--- a/Excel_luban/Datas/PuzzleConfig.xlsx
+++ b/Excel_luban/Datas/PuzzleConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12975"/>
+    <workbookView windowWidth="26835" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="PuzzleConfig" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
   <si>
     <t>##var</t>
   </si>
@@ -44,7 +44,10 @@
     <t>iconPos</t>
   </si>
   <si>
-    <t>##desc</t>
+    <t>cellPos</t>
+  </si>
+  <si>
+    <t>##itemPos</t>
   </si>
   <si>
     <t>##type</t>
@@ -62,9 +65,6 @@
     <t>##group</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -74,124 +74,268 @@
     <t>组件</t>
   </si>
   <si>
-    <t>位置</t>
-  </si>
-  <si>
-    <t>不导出备注</t>
-  </si>
-  <si>
-    <t>ui://PuzzlePKG/TL</t>
+    <t>icon位置</t>
+  </si>
+  <si>
+    <t>cell位置,0,0开始</t>
+  </si>
+  <si>
+    <t>item位置</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/Item_Puzzle_TL</t>
   </si>
   <si>
     <t>0,0</t>
   </si>
   <si>
-    <t>ui://PuzzlePKG/T1</t>
+    <t>50,60</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/Item_Puzzle_T1</t>
   </si>
   <si>
     <t>-170,0</t>
   </si>
   <si>
-    <t>ui://PuzzlePKG/T2</t>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>220,60</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/Item_Puzzle_T2</t>
   </si>
   <si>
     <t>-340,0</t>
   </si>
   <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>390,60</t>
+  </si>
+  <si>
     <t>-510,0</t>
   </si>
   <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>560,60</t>
+  </si>
+  <si>
     <t>-680,0</t>
   </si>
   <si>
-    <t>ui://PuzzlePKG/TR</t>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>730,60</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/Item_Puzzle_TR</t>
   </si>
   <si>
     <t>-850,0</t>
   </si>
   <si>
-    <t>ui://PuzzlePKG/L1</t>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>900,60</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/Item_Puzzle_L1</t>
   </si>
   <si>
     <t>0,-170</t>
   </si>
   <si>
-    <t>ui://PuzzlePKG/C1</t>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>50,230</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/Item_Puzzle_C1</t>
   </si>
   <si>
     <t>-170,-170</t>
   </si>
   <si>
-    <t>ui://PuzzlePKG/C2</t>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>220,230</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/Item_Puzzle_C2</t>
   </si>
   <si>
     <t>-340,-170</t>
   </si>
   <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>390,230</t>
+  </si>
+  <si>
     <t>-510,-170</t>
   </si>
   <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>560,230</t>
+  </si>
+  <si>
     <t>-680,-170</t>
   </si>
   <si>
-    <t>ui://PuzzlePKG/R1</t>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>730,230</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/Item_Puzzle_R1</t>
   </si>
   <si>
     <t>-850,-170</t>
   </si>
   <si>
-    <t>ui://PuzzlePKG/L2</t>
+    <t>5,1</t>
+  </si>
+  <si>
+    <t>900,230</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/Item_Puzzle_L2</t>
   </si>
   <si>
     <t>0,-340</t>
   </si>
   <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>50,400</t>
+  </si>
+  <si>
     <t>-170,-340</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>220,400</t>
+  </si>
+  <si>
     <t>-340,-340</t>
   </si>
   <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>390,400</t>
+  </si>
+  <si>
     <t>-510,-340</t>
   </si>
   <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>560,400</t>
+  </si>
+  <si>
     <t>-680,-340</t>
   </si>
   <si>
-    <t>ui://PuzzlePKG/R2</t>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>730,400</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/Item_Puzzle_R2</t>
   </si>
   <si>
     <t>-850,-340</t>
   </si>
   <si>
-    <t>ui://PuzzlePKG/BL</t>
+    <t>5,2</t>
+  </si>
+  <si>
+    <t>900,400</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/Item_Puzzle_BL</t>
   </si>
   <si>
     <t>0,-510</t>
   </si>
   <si>
-    <t>ui://PuzzlePKG/B1</t>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>50,570</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/Item_Puzzle_B1</t>
   </si>
   <si>
     <t>-170,-510</t>
   </si>
   <si>
-    <t>ui://PuzzlePKG/B2</t>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>220,570</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/Item_Puzzle_B2</t>
   </si>
   <si>
     <t>-340,-510</t>
   </si>
   <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>390,570</t>
+  </si>
+  <si>
     <t>-510,-510</t>
   </si>
   <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>560,570</t>
+  </si>
+  <si>
     <t>-680,-510</t>
   </si>
   <si>
-    <t>ui://PuzzlePKG/BR</t>
+    <t>4,3</t>
+  </si>
+  <si>
+    <t>730,570</t>
+  </si>
+  <si>
+    <t>ui://PuzzlePKG/Item_Puzzle_BR</t>
   </si>
   <si>
     <t>-850,-510</t>
+  </si>
+  <si>
+    <t>5,3</t>
+  </si>
+  <si>
+    <t>900,570</t>
   </si>
 </sst>
 </file>
@@ -205,7 +349,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,12 +395,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -426,7 +564,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,6 +592,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,203 +939,203 @@
   </borders>
   <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1010,18 +1154,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1029,7 +1178,13 @@
     <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1038,31 +1193,34 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1475,523 +1633,915 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="12.075" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="7" customWidth="1"/>
     <col min="4" max="4" width="12.075" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.8416666666667" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="7"/>
+    <col min="5" max="5" width="17.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="8" customWidth="1"/>
+    <col min="7" max="19" width="9" style="9"/>
+    <col min="20" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:25">
-      <c r="A3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:25">
-      <c r="A4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="2:5">
-      <c r="B6" s="16">
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="2:19">
+      <c r="B6" s="19">
         <v>110</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="2:5">
-      <c r="B7" s="16">
+      <c r="D6" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="2:19">
+      <c r="B7" s="19">
         <v>111</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="2:5">
-      <c r="B8" s="16">
+      <c r="C7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="2:19">
+      <c r="B8" s="19">
         <v>112</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="2:19">
+      <c r="B9" s="19">
+        <v>113</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="2:5">
-      <c r="B9" s="16">
-        <v>113</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="2:5">
-      <c r="B10" s="16">
+      <c r="D9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="2:19">
+      <c r="B10" s="19">
         <v>114</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="2:5">
-      <c r="B11" s="16">
+      <c r="C10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="2:19">
+      <c r="B11" s="19">
         <v>115</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" s="4" customFormat="1" spans="2:5">
-      <c r="B12" s="19">
+      <c r="C11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+    </row>
+    <row r="12" s="4" customFormat="1" spans="2:19">
+      <c r="B12" s="24">
         <v>120</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="1" spans="2:5">
-      <c r="B13" s="19">
+      <c r="C12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" s="4" customFormat="1" spans="2:19">
+      <c r="B13" s="24">
         <v>121</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" spans="2:5">
-      <c r="B14" s="19">
+      <c r="C13" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" s="4" customFormat="1" spans="2:19">
+      <c r="B14" s="24">
         <v>122</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" s="4" customFormat="1" spans="2:5">
-      <c r="B15" s="19">
+      <c r="C14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" s="4" customFormat="1" spans="2:19">
+      <c r="B15" s="24">
         <v>123</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" s="4" customFormat="1" spans="2:5">
-      <c r="B16" s="19">
+      <c r="C15" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" s="4" customFormat="1" spans="2:19">
+      <c r="B16" s="24">
         <v>124</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" s="4" customFormat="1" spans="2:5">
-      <c r="B17" s="19">
+      <c r="C16" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" s="4" customFormat="1" spans="2:19">
+      <c r="B17" s="24">
         <v>125</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" s="5" customFormat="1" spans="2:5">
-      <c r="B18" s="22">
+      <c r="C17" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" s="5" customFormat="1" spans="2:19">
+      <c r="B18" s="27">
         <v>130</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="1" spans="2:5">
-      <c r="B19" s="22">
+      <c r="C18" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+    </row>
+    <row r="19" s="5" customFormat="1" spans="2:19">
+      <c r="B19" s="27">
         <v>131</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" s="5" customFormat="1" spans="2:5">
-      <c r="B20" s="22">
+      <c r="C19" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+    </row>
+    <row r="20" s="5" customFormat="1" spans="2:19">
+      <c r="B20" s="27">
         <v>132</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" s="5" customFormat="1" spans="2:5">
-      <c r="B21" s="22">
+      <c r="C20" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+    </row>
+    <row r="21" s="5" customFormat="1" spans="2:19">
+      <c r="B21" s="27">
         <v>133</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" s="5" customFormat="1" spans="2:5">
-      <c r="B22" s="22">
+      <c r="C21" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+    </row>
+    <row r="22" s="5" customFormat="1" spans="2:19">
+      <c r="B22" s="27">
         <v>134</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" s="5" customFormat="1" spans="2:5">
-      <c r="B23" s="22">
+      <c r="C22" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+    </row>
+    <row r="23" s="5" customFormat="1" spans="2:19">
+      <c r="B23" s="27">
         <v>135</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" s="6" customFormat="1" spans="2:5">
-      <c r="B24" s="25">
+      <c r="C23" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="2:19">
+      <c r="B24" s="30">
         <v>140</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" s="6" customFormat="1" spans="2:5">
-      <c r="B25" s="25">
+      <c r="C24" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+    </row>
+    <row r="25" s="6" customFormat="1" spans="2:19">
+      <c r="B25" s="30">
         <v>141</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" s="6" customFormat="1" spans="2:5">
-      <c r="B26" s="25">
+      <c r="C25" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+    </row>
+    <row r="26" s="6" customFormat="1" spans="2:19">
+      <c r="B26" s="30">
         <v>142</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" s="6" customFormat="1" spans="2:5">
-      <c r="B27" s="25">
+      <c r="C26" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+    </row>
+    <row r="27" s="6" customFormat="1" spans="2:19">
+      <c r="B27" s="30">
         <v>143</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" s="6" customFormat="1" spans="2:5">
-      <c r="B28" s="25">
+      <c r="C27" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+    </row>
+    <row r="28" s="6" customFormat="1" spans="2:19">
+      <c r="B28" s="30">
         <v>144</v>
       </c>
-      <c r="C28" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" s="6" customFormat="1" spans="2:5">
-      <c r="B29" s="25">
+      <c r="C28" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+    </row>
+    <row r="29" s="6" customFormat="1" spans="2:19">
+      <c r="B29" s="30">
         <v>145</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="27">
-        <v>8</v>
-      </c>
+      <c r="C29" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:B11">
